--- a/WAF/Data/TestData.xlsx
+++ b/WAF/Data/TestData.xlsx
@@ -333,41 +333,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/WAF/Data/TestData.xlsx
+++ b/WAF/Data/TestData.xlsx
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,15 +345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
@@ -349,8 +363,11 @@
       <c r="C1">
         <v>30</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -360,8 +377,11 @@
       <c r="C2">
         <v>44</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>77</v>
       </c>
@@ -370,6 +390,9 @@
       </c>
       <c r="C3">
         <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WAF/Data/TestData.xlsx
+++ b/WAF/Data/TestData.xlsx
@@ -348,14 +348,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>10</v>
+        <v>1220</v>
       </c>
       <c r="B1">
         <v>20</v>
